--- a/data/cs_total_debt_actual.xlsx
+++ b/data/cs_total_debt_actual.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1760"/>
+  <dimension ref="A1:B2011"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4234,2031 +4234,776 @@
     <row r="1280" spans="1:1">
       <c r="A1280" s="1"/>
     </row>
-    <row r="1281" spans="1:2">
+    <row r="1281" spans="1:1">
       <c r="A1281" s="1"/>
     </row>
-    <row r="1282" spans="1:2">
+    <row r="1282" spans="1:1">
       <c r="A1282" s="1"/>
     </row>
-    <row r="1283" spans="1:2">
+    <row r="1283" spans="1:1">
       <c r="A1283" s="1"/>
     </row>
-    <row r="1284" spans="1:2">
+    <row r="1284" spans="1:1">
       <c r="A1284" s="1"/>
     </row>
-    <row r="1285" spans="1:2">
+    <row r="1285" spans="1:1">
       <c r="A1285" s="1"/>
     </row>
-    <row r="1286" spans="1:2">
+    <row r="1286" spans="1:1">
       <c r="A1286" s="1"/>
     </row>
-    <row r="1287" spans="1:2">
-      <c r="A1287" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1287">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1288" spans="1:2">
-      <c r="A1288" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1288">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1289" spans="1:2">
-      <c r="A1289" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1289">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1290" spans="1:2">
-      <c r="A1290" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1290">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1291" spans="1:2">
-      <c r="A1291" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1291">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1292" spans="1:2">
-      <c r="A1292" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1292">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1293" spans="1:2">
-      <c r="A1293" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1293">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1294" spans="1:2">
-      <c r="A1294" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1294">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1295" spans="1:2">
-      <c r="A1295" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1295">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1296" spans="1:2">
-      <c r="A1296" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1296">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1297" spans="1:2">
-      <c r="A1297" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1297">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1298" spans="1:2">
-      <c r="A1298" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1298">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1299" spans="1:2">
-      <c r="A1299" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1299">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1300" spans="1:2">
-      <c r="A1300" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1300">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1301" spans="1:2">
-      <c r="A1301" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1301">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1302" spans="1:2">
-      <c r="A1302" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1302">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1303" spans="1:2">
-      <c r="A1303" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1303">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1304" spans="1:2">
-      <c r="A1304" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1304">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1305" spans="1:2">
-      <c r="A1305" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1305">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1306" spans="1:2">
-      <c r="A1306" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1306">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1307" spans="1:2">
-      <c r="A1307" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1307">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1308" spans="1:2">
-      <c r="A1308" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1308">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1309" spans="1:2">
-      <c r="A1309" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1309">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1310" spans="1:2">
-      <c r="A1310" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1310">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1311" spans="1:2">
-      <c r="A1311" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1311">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1312" spans="1:2">
-      <c r="A1312" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1312">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1313" spans="1:2">
-      <c r="A1313" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1313">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1314" spans="1:2">
-      <c r="A1314" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1314">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1315" spans="1:2">
-      <c r="A1315" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1315">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1316" spans="1:2">
-      <c r="A1316" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1316">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1317" spans="1:2">
-      <c r="A1317" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1317">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1318" spans="1:2">
-      <c r="A1318" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1318">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1319" spans="1:2">
-      <c r="A1319" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1319">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1320" spans="1:2">
-      <c r="A1320" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1320">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1321" spans="1:2">
-      <c r="A1321" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1321">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1322" spans="1:2">
-      <c r="A1322" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1322">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1323" spans="1:2">
-      <c r="A1323" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1323">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1324" spans="1:2">
-      <c r="A1324" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1324">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1325" spans="1:2">
-      <c r="A1325" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1325">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1326" spans="1:2">
-      <c r="A1326" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1326">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1327" spans="1:2">
-      <c r="A1327" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1327">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1328" spans="1:2">
-      <c r="A1328" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1328">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1329" spans="1:2">
-      <c r="A1329" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1329">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1330" spans="1:2">
-      <c r="A1330" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1330">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1331" spans="1:2">
-      <c r="A1331" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1331">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1332" spans="1:2">
-      <c r="A1332" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1332">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1333" spans="1:2">
-      <c r="A1333" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1333">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1334" spans="1:2">
-      <c r="A1334" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1334">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1335" spans="1:2">
-      <c r="A1335" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1335">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1336" spans="1:2">
-      <c r="A1336" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1336">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1337" spans="1:2">
-      <c r="A1337" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1337">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1338" spans="1:2">
-      <c r="A1338" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1338">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1339" spans="1:2">
-      <c r="A1339" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1339">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1340" spans="1:2">
-      <c r="A1340" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1340">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1341" spans="1:2">
-      <c r="A1341" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1341">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1342" spans="1:2">
-      <c r="A1342" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1342">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1343" spans="1:2">
-      <c r="A1343" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1343">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1344" spans="1:2">
-      <c r="A1344" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1344">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1345" spans="1:2">
-      <c r="A1345" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1345">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1346" spans="1:2">
-      <c r="A1346" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1346">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1347" spans="1:2">
-      <c r="A1347" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1347">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1348" spans="1:2">
-      <c r="A1348" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1348">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1349" spans="1:2">
-      <c r="A1349" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1349">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1350" spans="1:2">
-      <c r="A1350" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1350">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1351" spans="1:2">
-      <c r="A1351" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1351">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1352" spans="1:2">
-      <c r="A1352" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1352">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1353" spans="1:2">
-      <c r="A1353" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1353">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1354" spans="1:2">
-      <c r="A1354" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1354">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1355" spans="1:2">
-      <c r="A1355" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1355">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1356" spans="1:2">
-      <c r="A1356" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1356">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1357" spans="1:2">
-      <c r="A1357" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1357">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1358" spans="1:2">
-      <c r="A1358" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1358">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1359" spans="1:2">
-      <c r="A1359" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1359">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1360" spans="1:2">
-      <c r="A1360" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1360">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1361" spans="1:2">
-      <c r="A1361" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1361">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1362" spans="1:2">
-      <c r="A1362" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1362">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1363" spans="1:2">
-      <c r="A1363" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1363">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1364" spans="1:2">
-      <c r="A1364" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1364">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1365" spans="1:2">
-      <c r="A1365" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1365">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1366" spans="1:2">
-      <c r="A1366" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1366">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1367" spans="1:2">
-      <c r="A1367" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1367">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1368" spans="1:2">
-      <c r="A1368" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1368">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1369" spans="1:2">
-      <c r="A1369" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1369">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1370" spans="1:2">
-      <c r="A1370" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1370">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1371" spans="1:2">
-      <c r="A1371" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1371">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1372" spans="1:2">
-      <c r="A1372" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1372">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1373" spans="1:2">
-      <c r="A1373" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1373">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1374" spans="1:2">
-      <c r="A1374" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1374">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1375" spans="1:2">
-      <c r="A1375" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1375">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1376" spans="1:2">
-      <c r="A1376" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1376">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1377" spans="1:2">
-      <c r="A1377" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1377">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1378" spans="1:2">
-      <c r="A1378" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1378">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1379" spans="1:2">
-      <c r="A1379" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1379">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1380" spans="1:2">
-      <c r="A1380" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1380">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1381" spans="1:2">
-      <c r="A1381" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1381">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1382" spans="1:2">
-      <c r="A1382" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1382">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1383" spans="1:2">
-      <c r="A1383" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1383">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1384" spans="1:2">
-      <c r="A1384" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1384">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1385" spans="1:2">
-      <c r="A1385" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1385">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1386" spans="1:2">
-      <c r="A1386" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1386">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1387" spans="1:2">
-      <c r="A1387" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1387">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1388" spans="1:2">
-      <c r="A1388" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1388">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1389" spans="1:2">
-      <c r="A1389" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1389">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1390" spans="1:2">
-      <c r="A1390" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1390">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1391" spans="1:2">
-      <c r="A1391" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1391">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1392" spans="1:2">
-      <c r="A1392" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1392">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1393" spans="1:2">
-      <c r="A1393" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1393">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1394" spans="1:2">
-      <c r="A1394" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1394">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1395" spans="1:2">
-      <c r="A1395" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1395">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1396" spans="1:2">
-      <c r="A1396" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1396">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1397" spans="1:2">
-      <c r="A1397" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1397">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1398" spans="1:2">
-      <c r="A1398" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1398">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1399" spans="1:2">
-      <c r="A1399" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1399">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1400" spans="1:2">
-      <c r="A1400" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1400">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1401" spans="1:2">
-      <c r="A1401" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1401">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1402" spans="1:2">
-      <c r="A1402" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1402">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1403" spans="1:2">
-      <c r="A1403" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1403">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1404" spans="1:2">
-      <c r="A1404" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1404">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1405" spans="1:2">
-      <c r="A1405" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1405">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1406" spans="1:2">
-      <c r="A1406" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1406">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1407" spans="1:2">
-      <c r="A1407" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1407">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1408" spans="1:2">
-      <c r="A1408" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1408">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1409" spans="1:2">
-      <c r="A1409" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1409">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1410" spans="1:2">
-      <c r="A1410" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1410">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1411" spans="1:2">
-      <c r="A1411" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1411">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1412" spans="1:2">
-      <c r="A1412" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1412">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1413" spans="1:2">
-      <c r="A1413" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1413">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1414" spans="1:2">
-      <c r="A1414" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1414">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1415" spans="1:2">
-      <c r="A1415" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1415">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1416" spans="1:2">
-      <c r="A1416" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1416">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1417" spans="1:2">
-      <c r="A1417" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1417">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1418" spans="1:2">
-      <c r="A1418" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1418">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1419" spans="1:2">
-      <c r="A1419" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1419">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1420" spans="1:2">
-      <c r="A1420" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1420">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1421" spans="1:2">
-      <c r="A1421" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1421">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1422" spans="1:2">
-      <c r="A1422" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1422">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1423" spans="1:2">
-      <c r="A1423" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1423">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1424" spans="1:2">
-      <c r="A1424" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1424">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1425" spans="1:2">
-      <c r="A1425" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1425">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1426" spans="1:2">
-      <c r="A1426" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1426">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1427" spans="1:2">
-      <c r="A1427" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1427">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1428" spans="1:2">
-      <c r="A1428" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1428">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1429" spans="1:2">
-      <c r="A1429" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1429">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1430" spans="1:2">
-      <c r="A1430" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1430">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1431" spans="1:2">
-      <c r="A1431" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1431">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1432" spans="1:2">
-      <c r="A1432" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1432">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1433" spans="1:2">
-      <c r="A1433" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1433">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1434" spans="1:2">
-      <c r="A1434" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1434">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1435" spans="1:2">
-      <c r="A1435" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1435">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1436" spans="1:2">
-      <c r="A1436" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1436">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1437" spans="1:2">
-      <c r="A1437" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1437">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1438" spans="1:2">
-      <c r="A1438" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1438">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1439" spans="1:2">
-      <c r="A1439" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1439">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1440" spans="1:2">
-      <c r="A1440" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1440">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1441" spans="1:2">
-      <c r="A1441" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1441">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1442" spans="1:2">
-      <c r="A1442" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1442">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1443" spans="1:2">
-      <c r="A1443" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1443">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1444" spans="1:2">
-      <c r="A1444" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1444">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1445" spans="1:2">
-      <c r="A1445" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1445">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1446" spans="1:2">
-      <c r="A1446" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1446">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1447" spans="1:2">
-      <c r="A1447" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1447">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1448" spans="1:2">
-      <c r="A1448" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1448">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1449" spans="1:2">
-      <c r="A1449" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1449">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1450" spans="1:2">
-      <c r="A1450" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1450">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1451" spans="1:2">
-      <c r="A1451" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1451">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1452" spans="1:2">
-      <c r="A1452" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1452">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1453" spans="1:2">
-      <c r="A1453" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1453">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1454" spans="1:2">
-      <c r="A1454" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1454">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1455" spans="1:2">
-      <c r="A1455" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1455">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1456" spans="1:2">
-      <c r="A1456" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1456">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1457" spans="1:2">
-      <c r="A1457" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1457">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1458" spans="1:2">
-      <c r="A1458" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1458">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1459" spans="1:2">
-      <c r="A1459" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1459">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1460" spans="1:2">
-      <c r="A1460" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1460">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1461" spans="1:2">
-      <c r="A1461" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1461">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1462" spans="1:2">
-      <c r="A1462" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1462">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1463" spans="1:2">
-      <c r="A1463" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1463">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1464" spans="1:2">
-      <c r="A1464" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1464">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1465" spans="1:2">
-      <c r="A1465" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1465">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1466" spans="1:2">
-      <c r="A1466" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1466">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1467" spans="1:2">
-      <c r="A1467" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1467">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1468" spans="1:2">
-      <c r="A1468" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1468">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1469" spans="1:2">
-      <c r="A1469" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1469">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1470" spans="1:2">
-      <c r="A1470" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1470">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1471" spans="1:2">
-      <c r="A1471" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1471">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1472" spans="1:2">
-      <c r="A1472" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1472">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1473" spans="1:2">
-      <c r="A1473" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1473">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1474" spans="1:2">
-      <c r="A1474" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1474">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1475" spans="1:2">
-      <c r="A1475" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1475">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1476" spans="1:2">
-      <c r="A1476" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1476">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1477" spans="1:2">
-      <c r="A1477" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1477">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1478" spans="1:2">
-      <c r="A1478" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1478">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1479" spans="1:2">
-      <c r="A1479" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1479">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1480" spans="1:2">
-      <c r="A1480" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1480">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1481" spans="1:2">
-      <c r="A1481" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1481">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1482" spans="1:2">
-      <c r="A1482" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1482">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1483" spans="1:2">
-      <c r="A1483" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1483">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1484" spans="1:2">
-      <c r="A1484" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1484">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1485" spans="1:2">
-      <c r="A1485" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1485">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1486" spans="1:2">
-      <c r="A1486" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1486">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1487" spans="1:2">
-      <c r="A1487" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1487">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1488" spans="1:2">
-      <c r="A1488" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1488">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1489" spans="1:2">
-      <c r="A1489" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1489">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1490" spans="1:2">
-      <c r="A1490" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1490">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1491" spans="1:2">
-      <c r="A1491" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1491">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1492" spans="1:2">
-      <c r="A1492" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1492">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1493" spans="1:2">
-      <c r="A1493" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1493">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1494" spans="1:2">
-      <c r="A1494" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1494">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1495" spans="1:2">
-      <c r="A1495" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1495">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1496" spans="1:2">
-      <c r="A1496" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1496">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1497" spans="1:2">
-      <c r="A1497" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1497">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1498" spans="1:2">
-      <c r="A1498" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1498">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1499" spans="1:2">
-      <c r="A1499" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1499">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1500" spans="1:2">
-      <c r="A1500" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1500">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1501" spans="1:2">
-      <c r="A1501" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1501">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1502" spans="1:2">
-      <c r="A1502" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1502">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1503" spans="1:2">
-      <c r="A1503" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1503">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1504" spans="1:2">
-      <c r="A1504" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1504">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1505" spans="1:2">
-      <c r="A1505" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1505">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1506" spans="1:2">
-      <c r="A1506" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1506">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1507" spans="1:2">
-      <c r="A1507" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1507">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1508" spans="1:2">
-      <c r="A1508" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1508">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1509" spans="1:2">
-      <c r="A1509" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1509">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1510" spans="1:2">
-      <c r="A1510" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1510">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1511" spans="1:2">
-      <c r="A1511" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1511">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1512" spans="1:2">
-      <c r="A1512" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1512">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1513" spans="1:2">
-      <c r="A1513" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1513">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1514" spans="1:2">
-      <c r="A1514" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1514">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1515" spans="1:2">
-      <c r="A1515" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1515">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1516" spans="1:2">
-      <c r="A1516" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1516">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1517" spans="1:2">
-      <c r="A1517" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1517">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1518" spans="1:2">
-      <c r="A1518" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1518">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1519" spans="1:2">
-      <c r="A1519" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1519">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1520" spans="1:2">
-      <c r="A1520" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1520">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1521" spans="1:2">
-      <c r="A1521" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1521">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1522" spans="1:2">
-      <c r="A1522" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1522">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1523" spans="1:2">
-      <c r="A1523" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1523">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1524" spans="1:2">
-      <c r="A1524" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1524">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1525" spans="1:2">
-      <c r="A1525" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1525">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1526" spans="1:2">
-      <c r="A1526" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1526">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1527" spans="1:2">
-      <c r="A1527" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1527">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1528" spans="1:2">
-      <c r="A1528" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1528">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1529" spans="1:2">
-      <c r="A1529" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1529">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1530" spans="1:2">
-      <c r="A1530" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1530">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1531" spans="1:2">
-      <c r="A1531" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1531">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1532" spans="1:2">
-      <c r="A1532" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1532">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1533" spans="1:2">
-      <c r="A1533" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1533">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1534" spans="1:2">
-      <c r="A1534" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1534">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1535" spans="1:2">
-      <c r="A1535" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1535">
-        <v>169649000000</v>
-      </c>
-    </row>
-    <row r="1536" spans="1:2">
-      <c r="A1536" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1536">
-        <v>169649000000</v>
-      </c>
+    <row r="1287" spans="1:1">
+      <c r="A1287" s="1"/>
+    </row>
+    <row r="1288" spans="1:1">
+      <c r="A1288" s="1"/>
+    </row>
+    <row r="1289" spans="1:1">
+      <c r="A1289" s="1"/>
+    </row>
+    <row r="1290" spans="1:1">
+      <c r="A1290" s="1"/>
+    </row>
+    <row r="1291" spans="1:1">
+      <c r="A1291" s="1"/>
+    </row>
+    <row r="1292" spans="1:1">
+      <c r="A1292" s="1"/>
+    </row>
+    <row r="1293" spans="1:1">
+      <c r="A1293" s="1"/>
+    </row>
+    <row r="1294" spans="1:1">
+      <c r="A1294" s="1"/>
+    </row>
+    <row r="1295" spans="1:1">
+      <c r="A1295" s="1"/>
+    </row>
+    <row r="1296" spans="1:1">
+      <c r="A1296" s="1"/>
+    </row>
+    <row r="1297" spans="1:1">
+      <c r="A1297" s="1"/>
+    </row>
+    <row r="1298" spans="1:1">
+      <c r="A1298" s="1"/>
+    </row>
+    <row r="1299" spans="1:1">
+      <c r="A1299" s="1"/>
+    </row>
+    <row r="1300" spans="1:1">
+      <c r="A1300" s="1"/>
+    </row>
+    <row r="1301" spans="1:1">
+      <c r="A1301" s="1"/>
+    </row>
+    <row r="1302" spans="1:1">
+      <c r="A1302" s="1"/>
+    </row>
+    <row r="1303" spans="1:1">
+      <c r="A1303" s="1"/>
+    </row>
+    <row r="1304" spans="1:1">
+      <c r="A1304" s="1"/>
+    </row>
+    <row r="1305" spans="1:1">
+      <c r="A1305" s="1"/>
+    </row>
+    <row r="1306" spans="1:1">
+      <c r="A1306" s="1"/>
+    </row>
+    <row r="1307" spans="1:1">
+      <c r="A1307" s="1"/>
+    </row>
+    <row r="1308" spans="1:1">
+      <c r="A1308" s="1"/>
+    </row>
+    <row r="1309" spans="1:1">
+      <c r="A1309" s="1"/>
+    </row>
+    <row r="1310" spans="1:1">
+      <c r="A1310" s="1"/>
+    </row>
+    <row r="1311" spans="1:1">
+      <c r="A1311" s="1"/>
+    </row>
+    <row r="1312" spans="1:1">
+      <c r="A1312" s="1"/>
+    </row>
+    <row r="1313" spans="1:1">
+      <c r="A1313" s="1"/>
+    </row>
+    <row r="1314" spans="1:1">
+      <c r="A1314" s="1"/>
+    </row>
+    <row r="1315" spans="1:1">
+      <c r="A1315" s="1"/>
+    </row>
+    <row r="1316" spans="1:1">
+      <c r="A1316" s="1"/>
+    </row>
+    <row r="1317" spans="1:1">
+      <c r="A1317" s="1"/>
+    </row>
+    <row r="1318" spans="1:1">
+      <c r="A1318" s="1"/>
+    </row>
+    <row r="1319" spans="1:1">
+      <c r="A1319" s="1"/>
+    </row>
+    <row r="1320" spans="1:1">
+      <c r="A1320" s="1"/>
+    </row>
+    <row r="1321" spans="1:1">
+      <c r="A1321" s="1"/>
+    </row>
+    <row r="1322" spans="1:1">
+      <c r="A1322" s="1"/>
+    </row>
+    <row r="1323" spans="1:1">
+      <c r="A1323" s="1"/>
+    </row>
+    <row r="1324" spans="1:1">
+      <c r="A1324" s="1"/>
+    </row>
+    <row r="1325" spans="1:1">
+      <c r="A1325" s="1"/>
+    </row>
+    <row r="1326" spans="1:1">
+      <c r="A1326" s="1"/>
+    </row>
+    <row r="1327" spans="1:1">
+      <c r="A1327" s="1"/>
+    </row>
+    <row r="1328" spans="1:1">
+      <c r="A1328" s="1"/>
+    </row>
+    <row r="1329" spans="1:1">
+      <c r="A1329" s="1"/>
+    </row>
+    <row r="1330" spans="1:1">
+      <c r="A1330" s="1"/>
+    </row>
+    <row r="1331" spans="1:1">
+      <c r="A1331" s="1"/>
+    </row>
+    <row r="1332" spans="1:1">
+      <c r="A1332" s="1"/>
+    </row>
+    <row r="1333" spans="1:1">
+      <c r="A1333" s="1"/>
+    </row>
+    <row r="1334" spans="1:1">
+      <c r="A1334" s="1"/>
+    </row>
+    <row r="1335" spans="1:1">
+      <c r="A1335" s="1"/>
+    </row>
+    <row r="1336" spans="1:1">
+      <c r="A1336" s="1"/>
+    </row>
+    <row r="1337" spans="1:1">
+      <c r="A1337" s="1"/>
+    </row>
+    <row r="1338" spans="1:1">
+      <c r="A1338" s="1"/>
+    </row>
+    <row r="1339" spans="1:1">
+      <c r="A1339" s="1"/>
+    </row>
+    <row r="1340" spans="1:1">
+      <c r="A1340" s="1"/>
+    </row>
+    <row r="1341" spans="1:1">
+      <c r="A1341" s="1"/>
+    </row>
+    <row r="1342" spans="1:1">
+      <c r="A1342" s="1"/>
+    </row>
+    <row r="1343" spans="1:1">
+      <c r="A1343" s="1"/>
+    </row>
+    <row r="1344" spans="1:1">
+      <c r="A1344" s="1"/>
+    </row>
+    <row r="1345" spans="1:1">
+      <c r="A1345" s="1"/>
+    </row>
+    <row r="1346" spans="1:1">
+      <c r="A1346" s="1"/>
+    </row>
+    <row r="1347" spans="1:1">
+      <c r="A1347" s="1"/>
+    </row>
+    <row r="1348" spans="1:1">
+      <c r="A1348" s="1"/>
+    </row>
+    <row r="1349" spans="1:1">
+      <c r="A1349" s="1"/>
+    </row>
+    <row r="1350" spans="1:1">
+      <c r="A1350" s="1"/>
+    </row>
+    <row r="1351" spans="1:1">
+      <c r="A1351" s="1"/>
+    </row>
+    <row r="1352" spans="1:1">
+      <c r="A1352" s="1"/>
+    </row>
+    <row r="1353" spans="1:1">
+      <c r="A1353" s="1"/>
+    </row>
+    <row r="1354" spans="1:1">
+      <c r="A1354" s="1"/>
+    </row>
+    <row r="1355" spans="1:1">
+      <c r="A1355" s="1"/>
+    </row>
+    <row r="1356" spans="1:1">
+      <c r="A1356" s="1"/>
+    </row>
+    <row r="1357" spans="1:1">
+      <c r="A1357" s="1"/>
+    </row>
+    <row r="1358" spans="1:1">
+      <c r="A1358" s="1"/>
+    </row>
+    <row r="1359" spans="1:1">
+      <c r="A1359" s="1"/>
+    </row>
+    <row r="1360" spans="1:1">
+      <c r="A1360" s="1"/>
+    </row>
+    <row r="1361" spans="1:1">
+      <c r="A1361" s="1"/>
+    </row>
+    <row r="1362" spans="1:1">
+      <c r="A1362" s="1"/>
+    </row>
+    <row r="1363" spans="1:1">
+      <c r="A1363" s="1"/>
+    </row>
+    <row r="1364" spans="1:1">
+      <c r="A1364" s="1"/>
+    </row>
+    <row r="1365" spans="1:1">
+      <c r="A1365" s="1"/>
+    </row>
+    <row r="1366" spans="1:1">
+      <c r="A1366" s="1"/>
+    </row>
+    <row r="1367" spans="1:1">
+      <c r="A1367" s="1"/>
+    </row>
+    <row r="1368" spans="1:1">
+      <c r="A1368" s="1"/>
+    </row>
+    <row r="1369" spans="1:1">
+      <c r="A1369" s="1"/>
+    </row>
+    <row r="1370" spans="1:1">
+      <c r="A1370" s="1"/>
+    </row>
+    <row r="1371" spans="1:1">
+      <c r="A1371" s="1"/>
+    </row>
+    <row r="1372" spans="1:1">
+      <c r="A1372" s="1"/>
+    </row>
+    <row r="1373" spans="1:1">
+      <c r="A1373" s="1"/>
+    </row>
+    <row r="1374" spans="1:1">
+      <c r="A1374" s="1"/>
+    </row>
+    <row r="1375" spans="1:1">
+      <c r="A1375" s="1"/>
+    </row>
+    <row r="1376" spans="1:1">
+      <c r="A1376" s="1"/>
+    </row>
+    <row r="1377" spans="1:1">
+      <c r="A1377" s="1"/>
+    </row>
+    <row r="1378" spans="1:1">
+      <c r="A1378" s="1"/>
+    </row>
+    <row r="1379" spans="1:1">
+      <c r="A1379" s="1"/>
+    </row>
+    <row r="1380" spans="1:1">
+      <c r="A1380" s="1"/>
+    </row>
+    <row r="1381" spans="1:1">
+      <c r="A1381" s="1"/>
+    </row>
+    <row r="1382" spans="1:1">
+      <c r="A1382" s="1"/>
+    </row>
+    <row r="1383" spans="1:1">
+      <c r="A1383" s="1"/>
+    </row>
+    <row r="1384" spans="1:1">
+      <c r="A1384" s="1"/>
+    </row>
+    <row r="1385" spans="1:1">
+      <c r="A1385" s="1"/>
+    </row>
+    <row r="1386" spans="1:1">
+      <c r="A1386" s="1"/>
+    </row>
+    <row r="1387" spans="1:1">
+      <c r="A1387" s="1"/>
+    </row>
+    <row r="1388" spans="1:1">
+      <c r="A1388" s="1"/>
+    </row>
+    <row r="1389" spans="1:1">
+      <c r="A1389" s="1"/>
+    </row>
+    <row r="1390" spans="1:1">
+      <c r="A1390" s="1"/>
+    </row>
+    <row r="1391" spans="1:1">
+      <c r="A1391" s="1"/>
+    </row>
+    <row r="1392" spans="1:1">
+      <c r="A1392" s="1"/>
+    </row>
+    <row r="1393" spans="1:1">
+      <c r="A1393" s="1"/>
+    </row>
+    <row r="1394" spans="1:1">
+      <c r="A1394" s="1"/>
+    </row>
+    <row r="1395" spans="1:1">
+      <c r="A1395" s="1"/>
+    </row>
+    <row r="1396" spans="1:1">
+      <c r="A1396" s="1"/>
+    </row>
+    <row r="1397" spans="1:1">
+      <c r="A1397" s="1"/>
+    </row>
+    <row r="1398" spans="1:1">
+      <c r="A1398" s="1"/>
+    </row>
+    <row r="1399" spans="1:1">
+      <c r="A1399" s="1"/>
+    </row>
+    <row r="1400" spans="1:1">
+      <c r="A1400" s="1"/>
+    </row>
+    <row r="1401" spans="1:1">
+      <c r="A1401" s="1"/>
+    </row>
+    <row r="1402" spans="1:1">
+      <c r="A1402" s="1"/>
+    </row>
+    <row r="1403" spans="1:1">
+      <c r="A1403" s="1"/>
+    </row>
+    <row r="1404" spans="1:1">
+      <c r="A1404" s="1"/>
+    </row>
+    <row r="1405" spans="1:1">
+      <c r="A1405" s="1"/>
+    </row>
+    <row r="1406" spans="1:1">
+      <c r="A1406" s="1"/>
+    </row>
+    <row r="1407" spans="1:1">
+      <c r="A1407" s="1"/>
+    </row>
+    <row r="1408" spans="1:1">
+      <c r="A1408" s="1"/>
+    </row>
+    <row r="1409" spans="1:1">
+      <c r="A1409" s="1"/>
+    </row>
+    <row r="1410" spans="1:1">
+      <c r="A1410" s="1"/>
+    </row>
+    <row r="1411" spans="1:1">
+      <c r="A1411" s="1"/>
+    </row>
+    <row r="1412" spans="1:1">
+      <c r="A1412" s="1"/>
+    </row>
+    <row r="1413" spans="1:1">
+      <c r="A1413" s="1"/>
+    </row>
+    <row r="1414" spans="1:1">
+      <c r="A1414" s="1"/>
+    </row>
+    <row r="1415" spans="1:1">
+      <c r="A1415" s="1"/>
+    </row>
+    <row r="1416" spans="1:1">
+      <c r="A1416" s="1"/>
+    </row>
+    <row r="1417" spans="1:1">
+      <c r="A1417" s="1"/>
+    </row>
+    <row r="1418" spans="1:1">
+      <c r="A1418" s="1"/>
+    </row>
+    <row r="1419" spans="1:1">
+      <c r="A1419" s="1"/>
+    </row>
+    <row r="1420" spans="1:1">
+      <c r="A1420" s="1"/>
+    </row>
+    <row r="1421" spans="1:1">
+      <c r="A1421" s="1"/>
+    </row>
+    <row r="1422" spans="1:1">
+      <c r="A1422" s="1"/>
+    </row>
+    <row r="1423" spans="1:1">
+      <c r="A1423" s="1"/>
+    </row>
+    <row r="1424" spans="1:1">
+      <c r="A1424" s="1"/>
+    </row>
+    <row r="1425" spans="1:1">
+      <c r="A1425" s="1"/>
+    </row>
+    <row r="1426" spans="1:1">
+      <c r="A1426" s="1"/>
+    </row>
+    <row r="1427" spans="1:1">
+      <c r="A1427" s="1"/>
+    </row>
+    <row r="1428" spans="1:1">
+      <c r="A1428" s="1"/>
+    </row>
+    <row r="1429" spans="1:1">
+      <c r="A1429" s="1"/>
+    </row>
+    <row r="1430" spans="1:1">
+      <c r="A1430" s="1"/>
+    </row>
+    <row r="1431" spans="1:1">
+      <c r="A1431" s="1"/>
+    </row>
+    <row r="1432" spans="1:1">
+      <c r="A1432" s="1"/>
+    </row>
+    <row r="1433" spans="1:1">
+      <c r="A1433" s="1"/>
+    </row>
+    <row r="1434" spans="1:1">
+      <c r="A1434" s="1"/>
+    </row>
+    <row r="1435" spans="1:1">
+      <c r="A1435" s="1"/>
+    </row>
+    <row r="1436" spans="1:1">
+      <c r="A1436" s="1"/>
+    </row>
+    <row r="1437" spans="1:1">
+      <c r="A1437" s="1"/>
+    </row>
+    <row r="1438" spans="1:1">
+      <c r="A1438" s="1"/>
+    </row>
+    <row r="1439" spans="1:1">
+      <c r="A1439" s="1"/>
+    </row>
+    <row r="1440" spans="1:1">
+      <c r="A1440" s="1"/>
+    </row>
+    <row r="1441" spans="1:1">
+      <c r="A1441" s="1"/>
+    </row>
+    <row r="1442" spans="1:1">
+      <c r="A1442" s="1"/>
+    </row>
+    <row r="1443" spans="1:1">
+      <c r="A1443" s="1"/>
+    </row>
+    <row r="1444" spans="1:1">
+      <c r="A1444" s="1"/>
+    </row>
+    <row r="1445" spans="1:1">
+      <c r="A1445" s="1"/>
+    </row>
+    <row r="1446" spans="1:1">
+      <c r="A1446" s="1"/>
+    </row>
+    <row r="1447" spans="1:1">
+      <c r="A1447" s="1"/>
+    </row>
+    <row r="1448" spans="1:1">
+      <c r="A1448" s="1"/>
+    </row>
+    <row r="1449" spans="1:1">
+      <c r="A1449" s="1"/>
+    </row>
+    <row r="1450" spans="1:1">
+      <c r="A1450" s="1"/>
+    </row>
+    <row r="1451" spans="1:1">
+      <c r="A1451" s="1"/>
+    </row>
+    <row r="1452" spans="1:1">
+      <c r="A1452" s="1"/>
+    </row>
+    <row r="1453" spans="1:1">
+      <c r="A1453" s="1"/>
+    </row>
+    <row r="1454" spans="1:1">
+      <c r="A1454" s="1"/>
+    </row>
+    <row r="1455" spans="1:1">
+      <c r="A1455" s="1"/>
+    </row>
+    <row r="1456" spans="1:1">
+      <c r="A1456" s="1"/>
+    </row>
+    <row r="1457" spans="1:1">
+      <c r="A1457" s="1"/>
+    </row>
+    <row r="1458" spans="1:1">
+      <c r="A1458" s="1"/>
+    </row>
+    <row r="1459" spans="1:1">
+      <c r="A1459" s="1"/>
+    </row>
+    <row r="1460" spans="1:1">
+      <c r="A1460" s="1"/>
+    </row>
+    <row r="1461" spans="1:1">
+      <c r="A1461" s="1"/>
+    </row>
+    <row r="1462" spans="1:1">
+      <c r="A1462" s="1"/>
+    </row>
+    <row r="1463" spans="1:1">
+      <c r="A1463" s="1"/>
+    </row>
+    <row r="1464" spans="1:1">
+      <c r="A1464" s="1"/>
+    </row>
+    <row r="1465" spans="1:1">
+      <c r="A1465" s="1"/>
+    </row>
+    <row r="1466" spans="1:1">
+      <c r="A1466" s="1"/>
+    </row>
+    <row r="1467" spans="1:1">
+      <c r="A1467" s="1"/>
+    </row>
+    <row r="1468" spans="1:1">
+      <c r="A1468" s="1"/>
+    </row>
+    <row r="1469" spans="1:1">
+      <c r="A1469" s="1"/>
+    </row>
+    <row r="1470" spans="1:1">
+      <c r="A1470" s="1"/>
+    </row>
+    <row r="1471" spans="1:1">
+      <c r="A1471" s="1"/>
+    </row>
+    <row r="1472" spans="1:1">
+      <c r="A1472" s="1"/>
+    </row>
+    <row r="1473" spans="1:1">
+      <c r="A1473" s="1"/>
+    </row>
+    <row r="1474" spans="1:1">
+      <c r="A1474" s="1"/>
+    </row>
+    <row r="1475" spans="1:1">
+      <c r="A1475" s="1"/>
+    </row>
+    <row r="1476" spans="1:1">
+      <c r="A1476" s="1"/>
+    </row>
+    <row r="1477" spans="1:1">
+      <c r="A1477" s="1"/>
+    </row>
+    <row r="1478" spans="1:1">
+      <c r="A1478" s="1"/>
+    </row>
+    <row r="1479" spans="1:1">
+      <c r="A1479" s="1"/>
+    </row>
+    <row r="1480" spans="1:1">
+      <c r="A1480" s="1"/>
+    </row>
+    <row r="1481" spans="1:1">
+      <c r="A1481" s="1"/>
+    </row>
+    <row r="1482" spans="1:1">
+      <c r="A1482" s="1"/>
+    </row>
+    <row r="1483" spans="1:1">
+      <c r="A1483" s="1"/>
+    </row>
+    <row r="1484" spans="1:1">
+      <c r="A1484" s="1"/>
+    </row>
+    <row r="1485" spans="1:1">
+      <c r="A1485" s="1"/>
+    </row>
+    <row r="1486" spans="1:1">
+      <c r="A1486" s="1"/>
+    </row>
+    <row r="1487" spans="1:1">
+      <c r="A1487" s="1"/>
+    </row>
+    <row r="1488" spans="1:1">
+      <c r="A1488" s="1"/>
+    </row>
+    <row r="1489" spans="1:1">
+      <c r="A1489" s="1"/>
+    </row>
+    <row r="1490" spans="1:1">
+      <c r="A1490" s="1"/>
+    </row>
+    <row r="1491" spans="1:1">
+      <c r="A1491" s="1"/>
+    </row>
+    <row r="1492" spans="1:1">
+      <c r="A1492" s="1"/>
+    </row>
+    <row r="1493" spans="1:1">
+      <c r="A1493" s="1"/>
+    </row>
+    <row r="1494" spans="1:1">
+      <c r="A1494" s="1"/>
+    </row>
+    <row r="1495" spans="1:1">
+      <c r="A1495" s="1"/>
+    </row>
+    <row r="1496" spans="1:1">
+      <c r="A1496" s="1"/>
+    </row>
+    <row r="1497" spans="1:1">
+      <c r="A1497" s="1"/>
+    </row>
+    <row r="1498" spans="1:1">
+      <c r="A1498" s="1"/>
+    </row>
+    <row r="1499" spans="1:1">
+      <c r="A1499" s="1"/>
+    </row>
+    <row r="1500" spans="1:1">
+      <c r="A1500" s="1"/>
+    </row>
+    <row r="1501" spans="1:1">
+      <c r="A1501" s="1"/>
+    </row>
+    <row r="1502" spans="1:1">
+      <c r="A1502" s="1"/>
+    </row>
+    <row r="1503" spans="1:1">
+      <c r="A1503" s="1"/>
+    </row>
+    <row r="1504" spans="1:1">
+      <c r="A1504" s="1"/>
+    </row>
+    <row r="1505" spans="1:1">
+      <c r="A1505" s="1"/>
+    </row>
+    <row r="1506" spans="1:1">
+      <c r="A1506" s="1"/>
+    </row>
+    <row r="1507" spans="1:1">
+      <c r="A1507" s="1"/>
+    </row>
+    <row r="1508" spans="1:1">
+      <c r="A1508" s="1"/>
+    </row>
+    <row r="1509" spans="1:1">
+      <c r="A1509" s="1"/>
+    </row>
+    <row r="1510" spans="1:1">
+      <c r="A1510" s="1"/>
+    </row>
+    <row r="1511" spans="1:1">
+      <c r="A1511" s="1"/>
+    </row>
+    <row r="1512" spans="1:1">
+      <c r="A1512" s="1"/>
+    </row>
+    <row r="1513" spans="1:1">
+      <c r="A1513" s="1"/>
+    </row>
+    <row r="1514" spans="1:1">
+      <c r="A1514" s="1"/>
+    </row>
+    <row r="1515" spans="1:1">
+      <c r="A1515" s="1"/>
+    </row>
+    <row r="1516" spans="1:1">
+      <c r="A1516" s="1"/>
+    </row>
+    <row r="1517" spans="1:1">
+      <c r="A1517" s="1"/>
+    </row>
+    <row r="1518" spans="1:1">
+      <c r="A1518" s="1"/>
+    </row>
+    <row r="1519" spans="1:1">
+      <c r="A1519" s="1"/>
+    </row>
+    <row r="1520" spans="1:1">
+      <c r="A1520" s="1"/>
+    </row>
+    <row r="1521" spans="1:1">
+      <c r="A1521" s="1"/>
+    </row>
+    <row r="1522" spans="1:1">
+      <c r="A1522" s="1"/>
+    </row>
+    <row r="1523" spans="1:1">
+      <c r="A1523" s="1"/>
+    </row>
+    <row r="1524" spans="1:1">
+      <c r="A1524" s="1"/>
+    </row>
+    <row r="1525" spans="1:1">
+      <c r="A1525" s="1"/>
+    </row>
+    <row r="1526" spans="1:1">
+      <c r="A1526" s="1"/>
+    </row>
+    <row r="1527" spans="1:1">
+      <c r="A1527" s="1"/>
+    </row>
+    <row r="1528" spans="1:1">
+      <c r="A1528" s="1"/>
+    </row>
+    <row r="1529" spans="1:1">
+      <c r="A1529" s="1"/>
+    </row>
+    <row r="1530" spans="1:1">
+      <c r="A1530" s="1"/>
+    </row>
+    <row r="1531" spans="1:1">
+      <c r="A1531" s="1"/>
+    </row>
+    <row r="1532" spans="1:1">
+      <c r="A1532" s="1"/>
+    </row>
+    <row r="1533" spans="1:1">
+      <c r="A1533" s="1"/>
+    </row>
+    <row r="1534" spans="1:1">
+      <c r="A1534" s="1"/>
+    </row>
+    <row r="1535" spans="1:1">
+      <c r="A1535" s="1"/>
+    </row>
+    <row r="1536" spans="1:1">
+      <c r="A1536" s="1"/>
     </row>
     <row r="1537" spans="1:2">
-      <c r="A1537" s="2">
-        <v>44966.24305555555</v>
-      </c>
-      <c r="B1537">
-        <v>169649000000</v>
-      </c>
+      <c r="A1537" s="1"/>
     </row>
     <row r="1538" spans="1:2">
       <c r="A1538" s="2">
@@ -8041,6 +6786,2014 @@
         <v>44966.24305555555</v>
       </c>
       <c r="B1760">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:2">
+      <c r="A1761" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1761">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:2">
+      <c r="A1762" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1762">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:2">
+      <c r="A1763" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1763">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:2">
+      <c r="A1764" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1764">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:2">
+      <c r="A1765" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1765">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:2">
+      <c r="A1766" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1766">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:2">
+      <c r="A1767" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1767">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:2">
+      <c r="A1768" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1768">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:2">
+      <c r="A1769" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1769">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:2">
+      <c r="A1770" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1770">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:2">
+      <c r="A1771" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1771">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:2">
+      <c r="A1772" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1772">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:2">
+      <c r="A1773" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1773">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:2">
+      <c r="A1774" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1774">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:2">
+      <c r="A1775" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1775">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:2">
+      <c r="A1776" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1776">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:2">
+      <c r="A1777" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1777">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:2">
+      <c r="A1778" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1778">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:2">
+      <c r="A1779" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1779">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:2">
+      <c r="A1780" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1780">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:2">
+      <c r="A1781" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1781">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:2">
+      <c r="A1782" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1782">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:2">
+      <c r="A1783" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1783">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:2">
+      <c r="A1784" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1784">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:2">
+      <c r="A1785" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1785">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:2">
+      <c r="A1786" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1786">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:2">
+      <c r="A1787" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1787">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:2">
+      <c r="A1788" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1788">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:2">
+      <c r="A1789" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1789">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:2">
+      <c r="A1790" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1790">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:2">
+      <c r="A1791" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1791">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:2">
+      <c r="A1792" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1792">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:2">
+      <c r="A1793" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1793">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:2">
+      <c r="A1794" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1794">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:2">
+      <c r="A1795" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1795">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:2">
+      <c r="A1796" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1796">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:2">
+      <c r="A1797" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1797">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:2">
+      <c r="A1798" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1798">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:2">
+      <c r="A1799" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1799">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:2">
+      <c r="A1800" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1800">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:2">
+      <c r="A1801" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1801">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:2">
+      <c r="A1802" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1802">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:2">
+      <c r="A1803" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1803">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:2">
+      <c r="A1804" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1804">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:2">
+      <c r="A1805" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1805">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:2">
+      <c r="A1806" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1806">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:2">
+      <c r="A1807" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1807">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:2">
+      <c r="A1808" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1808">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:2">
+      <c r="A1809" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1809">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:2">
+      <c r="A1810" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1810">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:2">
+      <c r="A1811" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1811">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:2">
+      <c r="A1812" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1812">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:2">
+      <c r="A1813" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1813">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:2">
+      <c r="A1814" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1814">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:2">
+      <c r="A1815" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1815">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:2">
+      <c r="A1816" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1816">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:2">
+      <c r="A1817" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1817">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:2">
+      <c r="A1818" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1818">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:2">
+      <c r="A1819" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1819">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:2">
+      <c r="A1820" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1820">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:2">
+      <c r="A1821" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1821">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:2">
+      <c r="A1822" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1822">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:2">
+      <c r="A1823" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1823">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:2">
+      <c r="A1824" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1824">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:2">
+      <c r="A1825" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1825">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:2">
+      <c r="A1826" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1826">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:2">
+      <c r="A1827" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1827">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:2">
+      <c r="A1828" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1828">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:2">
+      <c r="A1829" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1829">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:2">
+      <c r="A1830" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1830">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:2">
+      <c r="A1831" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1831">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:2">
+      <c r="A1832" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1832">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:2">
+      <c r="A1833" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1833">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:2">
+      <c r="A1834" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1834">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:2">
+      <c r="A1835" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1835">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:2">
+      <c r="A1836" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1836">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:2">
+      <c r="A1837" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1837">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:2">
+      <c r="A1838" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1838">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:2">
+      <c r="A1839" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1839">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:2">
+      <c r="A1840" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1840">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:2">
+      <c r="A1841" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1841">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:2">
+      <c r="A1842" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1842">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:2">
+      <c r="A1843" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1843">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:2">
+      <c r="A1844" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1844">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:2">
+      <c r="A1845" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1845">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:2">
+      <c r="A1846" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1846">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:2">
+      <c r="A1847" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1847">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:2">
+      <c r="A1848" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1848">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:2">
+      <c r="A1849" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1849">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:2">
+      <c r="A1850" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1850">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:2">
+      <c r="A1851" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1851">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:2">
+      <c r="A1852" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1852">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:2">
+      <c r="A1853" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1853">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:2">
+      <c r="A1854" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1854">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:2">
+      <c r="A1855" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1855">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:2">
+      <c r="A1856" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1856">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:2">
+      <c r="A1857" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1857">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:2">
+      <c r="A1858" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1858">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:2">
+      <c r="A1859" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1859">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:2">
+      <c r="A1860" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1860">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:2">
+      <c r="A1861" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1861">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:2">
+      <c r="A1862" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1862">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:2">
+      <c r="A1863" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1863">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:2">
+      <c r="A1864" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1864">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:2">
+      <c r="A1865" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1865">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:2">
+      <c r="A1866" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1866">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:2">
+      <c r="A1867" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1867">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:2">
+      <c r="A1868" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1868">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:2">
+      <c r="A1869" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1869">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:2">
+      <c r="A1870" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1870">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:2">
+      <c r="A1871" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1871">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:2">
+      <c r="A1872" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1872">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:2">
+      <c r="A1873" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1873">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:2">
+      <c r="A1874" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1874">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:2">
+      <c r="A1875" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1875">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:2">
+      <c r="A1876" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1876">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:2">
+      <c r="A1877" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1877">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:2">
+      <c r="A1878" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1878">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:2">
+      <c r="A1879" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1879">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:2">
+      <c r="A1880" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1880">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:2">
+      <c r="A1881" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1881">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:2">
+      <c r="A1882" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1882">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:2">
+      <c r="A1883" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1883">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:2">
+      <c r="A1884" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1884">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:2">
+      <c r="A1885" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1885">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:2">
+      <c r="A1886" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1886">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:2">
+      <c r="A1887" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1887">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:2">
+      <c r="A1888" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1888">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:2">
+      <c r="A1889" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1889">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:2">
+      <c r="A1890" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1890">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:2">
+      <c r="A1891" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1891">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:2">
+      <c r="A1892" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1892">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:2">
+      <c r="A1893" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1893">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:2">
+      <c r="A1894" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1894">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:2">
+      <c r="A1895" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1895">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:2">
+      <c r="A1896" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1896">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:2">
+      <c r="A1897" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1897">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:2">
+      <c r="A1898" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1898">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:2">
+      <c r="A1899" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1899">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:2">
+      <c r="A1900" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1900">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:2">
+      <c r="A1901" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1901">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:2">
+      <c r="A1902" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1902">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:2">
+      <c r="A1903" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1903">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:2">
+      <c r="A1904" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1904">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:2">
+      <c r="A1905" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1905">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:2">
+      <c r="A1906" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1906">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:2">
+      <c r="A1907" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1907">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:2">
+      <c r="A1908" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1908">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:2">
+      <c r="A1909" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1909">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:2">
+      <c r="A1910" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1910">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:2">
+      <c r="A1911" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1911">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:2">
+      <c r="A1912" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1912">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:2">
+      <c r="A1913" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1913">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:2">
+      <c r="A1914" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1914">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:2">
+      <c r="A1915" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1915">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:2">
+      <c r="A1916" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1916">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:2">
+      <c r="A1917" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1917">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:2">
+      <c r="A1918" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1918">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:2">
+      <c r="A1919" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1919">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:2">
+      <c r="A1920" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1920">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:2">
+      <c r="A1921" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1921">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:2">
+      <c r="A1922" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1922">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:2">
+      <c r="A1923" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1923">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:2">
+      <c r="A1924" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1924">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:2">
+      <c r="A1925" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1925">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:2">
+      <c r="A1926" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1926">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:2">
+      <c r="A1927" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1927">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:2">
+      <c r="A1928" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1928">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:2">
+      <c r="A1929" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1929">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:2">
+      <c r="A1930" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1930">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:2">
+      <c r="A1931" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1931">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:2">
+      <c r="A1932" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1932">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:2">
+      <c r="A1933" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1933">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:2">
+      <c r="A1934" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1934">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:2">
+      <c r="A1935" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1935">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:2">
+      <c r="A1936" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1936">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:2">
+      <c r="A1937" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1937">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:2">
+      <c r="A1938" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1938">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:2">
+      <c r="A1939" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1939">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:2">
+      <c r="A1940" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1940">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:2">
+      <c r="A1941" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1941">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:2">
+      <c r="A1942" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1942">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:2">
+      <c r="A1943" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1943">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:2">
+      <c r="A1944" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1944">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:2">
+      <c r="A1945" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1945">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:2">
+      <c r="A1946" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1946">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:2">
+      <c r="A1947" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1947">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:2">
+      <c r="A1948" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1948">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:2">
+      <c r="A1949" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1949">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:2">
+      <c r="A1950" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1950">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:2">
+      <c r="A1951" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1951">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:2">
+      <c r="A1952" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1952">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:2">
+      <c r="A1953" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1953">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:2">
+      <c r="A1954" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1954">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:2">
+      <c r="A1955" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1955">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:2">
+      <c r="A1956" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1956">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:2">
+      <c r="A1957" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1957">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:2">
+      <c r="A1958" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1958">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:2">
+      <c r="A1959" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1959">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:2">
+      <c r="A1960" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1960">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:2">
+      <c r="A1961" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1961">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:2">
+      <c r="A1962" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1962">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:2">
+      <c r="A1963" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1963">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:2">
+      <c r="A1964" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1964">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:2">
+      <c r="A1965" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1965">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:2">
+      <c r="A1966" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1966">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:2">
+      <c r="A1967" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1967">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:2">
+      <c r="A1968" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1968">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:2">
+      <c r="A1969" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1969">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:2">
+      <c r="A1970" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1970">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:2">
+      <c r="A1971" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1971">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:2">
+      <c r="A1972" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1972">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:2">
+      <c r="A1973" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1973">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:2">
+      <c r="A1974" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1974">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:2">
+      <c r="A1975" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1975">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:2">
+      <c r="A1976" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1976">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:2">
+      <c r="A1977" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1977">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:2">
+      <c r="A1978" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1978">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:2">
+      <c r="A1979" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1979">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:2">
+      <c r="A1980" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1980">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:2">
+      <c r="A1981" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1981">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:2">
+      <c r="A1982" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1982">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:2">
+      <c r="A1983" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1983">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:2">
+      <c r="A1984" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1984">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:2">
+      <c r="A1985" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1985">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:2">
+      <c r="A1986" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1986">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:2">
+      <c r="A1987" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1987">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:2">
+      <c r="A1988" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1988">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:2">
+      <c r="A1989" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1989">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:2">
+      <c r="A1990" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1990">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:2">
+      <c r="A1991" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1991">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:2">
+      <c r="A1992" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1992">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:2">
+      <c r="A1993" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1993">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:2">
+      <c r="A1994" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1994">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:2">
+      <c r="A1995" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1995">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:2">
+      <c r="A1996" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1996">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:2">
+      <c r="A1997" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1997">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:2">
+      <c r="A1998" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1998">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:2">
+      <c r="A1999" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B1999">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:2">
+      <c r="A2000" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2000">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:2">
+      <c r="A2001" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2001">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:2">
+      <c r="A2002" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2002">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:2">
+      <c r="A2003" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2003">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:2">
+      <c r="A2004" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2004">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:2">
+      <c r="A2005" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2005">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:2">
+      <c r="A2006" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2006">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:2">
+      <c r="A2007" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2007">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:2">
+      <c r="A2008" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2008">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:2">
+      <c r="A2009" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2009">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:2">
+      <c r="A2010" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2010">
+        <v>169649000000</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:2">
+      <c r="A2011" s="2">
+        <v>44966.24305555555</v>
+      </c>
+      <c r="B2011">
         <v>169649000000</v>
       </c>
     </row>
